--- a/data/trans_camb/DCD-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/DCD-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,78; 10,82</t>
+          <t>2,94; 10,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,53; 13,86</t>
+          <t>3,53; 13,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,81; 26,14</t>
+          <t>11,73; 26,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,86; 33,77</t>
+          <t>17,44; 34,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,99; 22,59</t>
+          <t>8,58; 22,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,47; 35,77</t>
+          <t>22,42; 34,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,78; 20,7</t>
+          <t>11,06; 20,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,0; 15,86</t>
+          <t>7,18; 15,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>20,1; 29,12</t>
+          <t>19,84; 28,7</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,89; 11,76</t>
+          <t>6,76; 11,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,86; 9,34</t>
+          <t>4,93; 9,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,2; 17,94</t>
+          <t>12,11; 17,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,57; 21,06</t>
+          <t>14,72; 20,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,22; 17,09</t>
+          <t>11,02; 17,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,31; 28,06</t>
+          <t>21,05; 28,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,42; 15,57</t>
+          <t>11,3; 15,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,53; 12,17</t>
+          <t>8,68; 12,39</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>18,0; 22,38</t>
+          <t>17,92; 22,5</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,99; 8,43</t>
+          <t>5,03; 8,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,42; 8,6</t>
+          <t>5,4; 8,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,31; 13,81</t>
+          <t>9,34; 14,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13,71; 18,48</t>
+          <t>13,81; 18,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,61; 14,77</t>
+          <t>10,7; 14,78</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>23,68; 28,58</t>
+          <t>23,66; 28,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,1; 12,99</t>
+          <t>9,88; 12,96</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,42; 11,24</t>
+          <t>8,45; 11,28</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>17,17; 20,7</t>
+          <t>17,16; 20,71</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,96; 7,65</t>
+          <t>4,0; 7,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,16; 7,67</t>
+          <t>4,11; 7,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,84; 14,66</t>
+          <t>9,83; 14,56</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,43; 17,68</t>
+          <t>12,29; 17,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,8; 13,39</t>
+          <t>8,56; 13,23</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>16,09; 28,54</t>
+          <t>16,16; 28,71</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,57; 11,79</t>
+          <t>8,57; 11,82</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,84; 9,74</t>
+          <t>6,76; 9,65</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>14,42; 20,92</t>
+          <t>15,0; 21,13</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>5,03; 8,29</t>
+          <t>4,84; 8,17</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>5,44; 9,0</t>
+          <t>5,45; 8,86</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>12,38; 16,63</t>
+          <t>12,31; 17,03</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>13,84; 18,3</t>
+          <t>13,76; 18,28</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>12,36; 17,08</t>
+          <t>12,51; 17,19</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>24,44; 29,66</t>
+          <t>24,59; 29,66</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>9,96; 12,89</t>
+          <t>10,09; 12,88</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>9,75; 12,61</t>
+          <t>9,75; 12,83</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>19,42; 22,94</t>
+          <t>19,44; 23,08</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>5,78; 7,5</t>
+          <t>5,85; 7,59</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>5,94; 7,63</t>
+          <t>5,86; 7,71</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>12,13; 14,65</t>
+          <t>12,03; 14,44</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>15,09; 17,61</t>
+          <t>15,14; 17,66</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>11,92; 14,22</t>
+          <t>11,81; 14,22</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>23,39; 27,3</t>
+          <t>23,3; 27,34</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>10,85; 12,47</t>
+          <t>10,82; 12,39</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>9,25; 10,71</t>
+          <t>9,24; 10,71</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>18,57; 20,79</t>
+          <t>18,62; 20,89</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/DCD-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/DCD-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,12 +685,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,94; 10,87</t>
+          <t>2,93; 11,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,53; 13,57</t>
+          <t>3,33; 13,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -700,12 +700,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,44; 34,46</t>
+          <t>17,22; 35,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,58; 22,06</t>
+          <t>8,51; 22,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,06; 20,93</t>
+          <t>10,65; 20,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,18; 15,42</t>
+          <t>6,72; 15,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,12 +901,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,76; 11,82</t>
+          <t>6,86; 11,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,93; 9,33</t>
+          <t>4,85; 9,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -916,12 +916,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,72; 20,92</t>
+          <t>14,49; 21,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,02; 17,34</t>
+          <t>11,02; 17,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -931,12 +931,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,3; 15,52</t>
+          <t>11,22; 15,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,68; 12,39</t>
+          <t>8,56; 12,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,12 +1117,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,03; 8,3</t>
+          <t>5,08; 8,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,4; 8,81</t>
+          <t>5,45; 8,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1132,12 +1132,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13,81; 18,49</t>
+          <t>13,83; 18,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,7; 14,78</t>
+          <t>10,61; 14,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1147,12 +1147,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,88; 12,96</t>
+          <t>9,91; 12,8</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,45; 11,28</t>
+          <t>8,52; 11,23</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,12 +1333,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,0; 7,57</t>
+          <t>3,95; 7,63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,11; 7,85</t>
+          <t>4,08; 7,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1348,12 +1348,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,29; 17,58</t>
+          <t>12,22; 17,55</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,56; 13,23</t>
+          <t>8,73; 13,22</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1363,12 +1363,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,57; 11,82</t>
+          <t>8,58; 11,87</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,76; 9,65</t>
+          <t>6,97; 9,84</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1549,12 +1549,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>4,84; 8,17</t>
+          <t>4,91; 8,12</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>5,45; 8,86</t>
+          <t>5,47; 8,85</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1564,12 +1564,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>13,76; 18,28</t>
+          <t>13,82; 18,53</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>12,51; 17,19</t>
+          <t>12,53; 17,25</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1579,12 +1579,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>10,09; 12,88</t>
+          <t>10,01; 12,92</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>9,75; 12,83</t>
+          <t>9,67; 12,68</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>5,85; 7,59</t>
+          <t>5,77; 7,54</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>5,86; 7,71</t>
+          <t>5,91; 7,69</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
@@ -1780,12 +1780,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>15,14; 17,66</t>
+          <t>15,02; 17,63</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>11,81; 14,22</t>
+          <t>11,92; 14,36</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
@@ -1795,12 +1795,12 @@
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>10,82; 12,39</t>
+          <t>10,76; 12,36</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>9,24; 10,71</t>
+          <t>9,24; 10,68</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">

--- a/data/trans_camb/DCD-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/DCD-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,93; 11,36</t>
+          <t>2,78; 10,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,33; 13,57</t>
+          <t>3,53; 13,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,73; 26,22</t>
+          <t>11,81; 26,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,22; 35,3</t>
+          <t>16,86; 33,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,51; 22,24</t>
+          <t>7,99; 22,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,42; 34,98</t>
+          <t>22,47; 35,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,65; 20,36</t>
+          <t>10,78; 20,7</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,72; 15,67</t>
+          <t>7,0; 15,86</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>19,84; 28,7</t>
+          <t>20,1; 29,12</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,86; 11,44</t>
+          <t>6,89; 11,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,85; 9,27</t>
+          <t>4,86; 9,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,11; 17,88</t>
+          <t>12,2; 17,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,49; 21,11</t>
+          <t>14,57; 21,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,02; 17,05</t>
+          <t>11,22; 17,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,05; 28,28</t>
+          <t>21,31; 28,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,22; 15,48</t>
+          <t>11,42; 15,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,56; 12,25</t>
+          <t>8,53; 12,17</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,92; 22,5</t>
+          <t>18,0; 22,38</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,08; 8,25</t>
+          <t>4,99; 8,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,45; 8,65</t>
+          <t>5,42; 8,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,34; 14,09</t>
+          <t>9,31; 13,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13,83; 18,54</t>
+          <t>13,71; 18,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,61; 14,79</t>
+          <t>10,61; 14,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>23,66; 28,45</t>
+          <t>23,68; 28,58</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,91; 12,8</t>
+          <t>10,1; 12,99</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,52; 11,23</t>
+          <t>8,42; 11,24</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>17,16; 20,71</t>
+          <t>17,17; 20,7</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,95; 7,63</t>
+          <t>3,96; 7,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,08; 7,67</t>
+          <t>4,16; 7,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,83; 14,56</t>
+          <t>9,84; 14,66</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,22; 17,55</t>
+          <t>12,43; 17,68</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,73; 13,22</t>
+          <t>8,8; 13,39</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>16,16; 28,71</t>
+          <t>16,09; 28,54</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,58; 11,87</t>
+          <t>8,57; 11,79</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,97; 9,84</t>
+          <t>6,84; 9,74</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>15,0; 21,13</t>
+          <t>14,42; 20,92</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>4,91; 8,12</t>
+          <t>5,03; 8,29</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>5,47; 8,85</t>
+          <t>5,44; 9,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>12,31; 17,03</t>
+          <t>12,38; 16,63</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>13,82; 18,53</t>
+          <t>13,84; 18,3</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>12,53; 17,25</t>
+          <t>12,36; 17,08</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>24,59; 29,66</t>
+          <t>24,44; 29,66</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>10,01; 12,92</t>
+          <t>9,96; 12,89</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>9,67; 12,68</t>
+          <t>9,75; 12,61</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>19,44; 23,08</t>
+          <t>19,42; 22,94</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>5,77; 7,54</t>
+          <t>5,78; 7,5</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>5,91; 7,69</t>
+          <t>5,94; 7,63</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>12,03; 14,44</t>
+          <t>12,13; 14,65</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>15,02; 17,63</t>
+          <t>15,09; 17,61</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>11,92; 14,36</t>
+          <t>11,92; 14,22</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>23,3; 27,34</t>
+          <t>23,39; 27,3</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>10,76; 12,36</t>
+          <t>10,85; 12,47</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>9,24; 10,68</t>
+          <t>9,25; 10,71</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>18,62; 20,89</t>
+          <t>18,57; 20,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/DCD-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/DCD-Habitat-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -63,13 +63,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -504,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,9 +516,6 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -541,68 +531,50 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2012/2007</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2016/2007</t>
+          <t>2023/2012</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2007</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2012/2007</t>
+          <t>2023/2012</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2016/2007</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2023/2007</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2012/2007</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2016/2007</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2023/2007</t>
+          <t>2023/2012</t>
         </is>
       </c>
     </row>
@@ -615,14 +587,11 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,95</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,54</t>
+          <t>6,53</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>18,07</t>
+          <t>-5,01</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>25,43</t>
+          <t>5,86</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>13,94</t>
+          <t>-3,23</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>28,38</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>15,53</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>10,69</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>23,86</t>
+          <t>6,55</t>
         </is>
       </c>
     </row>
@@ -685,47 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,78; 10,82</t>
+          <t>-4,48; 1,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,53; 13,86</t>
+          <t>3,13; 9,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,81; 26,14</t>
+          <t>-9,1; -1,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,86; 33,77</t>
+          <t>-0,41; 10,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,99; 22,59</t>
+          <t>-5,88; -0,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,47; 35,77</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>10,78; 20,7</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>7,0; 15,86</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>20,1; 29,12</t>
+          <t>3,61; 9,3</t>
         </is>
       </c>
     </row>
@@ -738,47 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-17,73%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>77,51%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-26,54%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>31,08%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-23,72%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>48,04%</t>
         </is>
       </c>
     </row>
@@ -791,54 +715,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,12; 18,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,56; 141,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,78; -5,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,2; 61,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,54; -5,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>24,29; 76,43</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,92</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,81</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,77</t>
+          <t>-3,5</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>17,62</t>
+          <t>10,04</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>13,85</t>
+          <t>-1,55</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>24,98</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>13,26</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>10,33</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>20,18</t>
+          <t>5,51</t>
         </is>
       </c>
     </row>
@@ -901,47 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,89; 11,76</t>
+          <t>-1,98; 2,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,86; 9,34</t>
+          <t>-2,41; 6,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,2; 17,94</t>
+          <t>-6,78; -0,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,57; 21,06</t>
+          <t>6,55; 13,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,22; 17,09</t>
+          <t>-3,59; 0,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,31; 28,06</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>11,42; 15,57</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>8,53; 12,17</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>18,0; 22,38</t>
+          <t>-0,33; 8,61</t>
         </is>
       </c>
     </row>
@@ -954,47 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>6,2%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>43,92%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-21,71%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>62,27%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-13,66%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>48,49%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +871,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,09; 45,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,47; 102,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,9; -2,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>35,85; 90,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,31; 4,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-1,61; 80,5</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,54</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,95</t>
+          <t>6,33</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>11,66</t>
+          <t>-3,91</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>16,12</t>
+          <t>6,01</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>12,62</t>
+          <t>-1,85</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>26,0</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>11,37</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>9,81</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>18,9</t>
+          <t>6,73</t>
         </is>
       </c>
     </row>
@@ -1117,47 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,99; 8,43</t>
+          <t>-2,36; 2,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,42; 8,6</t>
+          <t>3,56; 9,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,31; 13,81</t>
+          <t>-7,38; -0,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13,71; 18,48</t>
+          <t>-4,43; 13,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,61; 14,77</t>
+          <t>-3,95; 0,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>23,68; 28,58</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>10,1; 12,99</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>8,42; 11,24</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>17,17; 20,7</t>
+          <t>0,9; 10,18</t>
         </is>
       </c>
     </row>
@@ -1170,47 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>115,61%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-26,67%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>40,94%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-18,29%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>66,41%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1027,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,8; 68,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>47,12; 217,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,39; -1,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,2; 93,66</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,89; 4,8</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>8,77; 107,84</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,47</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,71</t>
+          <t>7,97</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>12,02</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>14,68</t>
+          <t>9,28</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>10,76</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>24,12</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>10,13</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>8,28</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>18,62</t>
+          <t>8,83</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,96; 7,65</t>
+          <t>-1,69; 3,04</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,16; 7,67</t>
+          <t>5,07; 10,69</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,84; 14,66</t>
+          <t>-4,42; 1,94</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,43; 17,68</t>
+          <t>3,75; 13,13</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,8; 13,39</t>
+          <t>-2,22; 1,74</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>16,09; 28,54</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>8,57; 11,79</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>6,84; 9,74</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>14,42; 20,92</t>
+          <t>6,0; 11,12</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>10,87%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>124,12%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-8,27%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>58,01%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-3,14%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>77,06%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1183,39 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,76; 57,37</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>64,26; 203,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,98; 13,44</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,21; 89,85</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,49; 16,7</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>48,99; 105,77</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>6,43</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>7,12</t>
+          <t>5,59</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>14,45</t>
+          <t>-3,26</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>15,99</t>
+          <t>7,94</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>14,67</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>26,77</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>11,46</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>11,1</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>21,15</t>
+          <t>6,89</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>5,03; 8,29</t>
+          <t>-1,08; 1,34</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>5,44; 9,0</t>
+          <t>2,94; 7,34</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>12,38; 16,63</t>
+          <t>-5,02; -1,62</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>13,84; 18,3</t>
+          <t>4,04; 10,56</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>12,36; 17,08</t>
+          <t>-2,7; -0,6</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>24,44; 29,66</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>9,96; 12,89</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>9,75; 12,61</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>19,42; 22,94</t>
+          <t>4,42; 8,55</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>83,99%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-19,98%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>48,67%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-14,02%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>59,49%</t>
         </is>
       </c>
     </row>
@@ -1655,284 +1339,52 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,89; 21,61</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>44,36; 122,43</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,02; -10,35</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,77; 67,51</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,21; -5,48</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>37,47; 76,9</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>6,66</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>6,72</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>13,23</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>16,31</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>13,05</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>25,72</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>11,57</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>9,95</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>19,86</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>5,78; 7,5</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>5,94; 7,63</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>12,13; 14,65</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>15,09; 17,61</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>11,92; 14,22</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>23,39; 27,3</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>10,85; 12,47</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>9,25; 10,71</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>18,57; 20,79</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/DCD-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/DCD-Habitat-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 1,12</t>
+          <t>-4,43; 1,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,13; 9,98</t>
+          <t>3,39; 10,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,1; -1,01</t>
+          <t>-9,11; -0,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 10,15</t>
+          <t>-0,76; 9,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,88; -0,62</t>
+          <t>-5,82; -0,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,61; 9,3</t>
+          <t>3,47; 9,4</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-44,12; 18,4</t>
+          <t>-43,89; 29,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>29,56; 141,6</t>
+          <t>33,44; 148,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-44,78; -5,41</t>
+          <t>-43,02; -4,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 61,3</t>
+          <t>-3,12; 56,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-38,54; -5,49</t>
+          <t>-38,4; -6,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,29; 76,43</t>
+          <t>23,86; 76,42</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 2,43</t>
+          <t>-1,92; 2,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 6,18</t>
+          <t>-1,9; 6,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,78; -0,37</t>
+          <t>-6,75; -0,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,55; 13,34</t>
+          <t>6,97; 13,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 0,43</t>
+          <t>-3,43; 0,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 8,61</t>
+          <t>-0,46; 8,45</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-26,09; 45,94</t>
+          <t>-24,74; 50,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-30,47; 102,46</t>
+          <t>-25,81; 104,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-37,9; -2,48</t>
+          <t>-38,85; -3,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>35,85; 90,91</t>
+          <t>39,52; 93,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-29,31; 4,27</t>
+          <t>-27,91; 3,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 80,5</t>
+          <t>0,04; 79,24</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 2,81</t>
+          <t>-2,29; 2,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,56; 9,17</t>
+          <t>3,28; 9,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,38; -0,26</t>
+          <t>-7,61; -0,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 13,11</t>
+          <t>-4,38; 13,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 0,47</t>
+          <t>-3,87; 0,27</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,9; 10,18</t>
+          <t>0,7; 10,02</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-35,8; 68,56</t>
+          <t>-33,24; 69,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>47,12; 217,49</t>
+          <t>47,21; 217,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-44,39; -1,13</t>
+          <t>-44,5; -4,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-27,2; 93,66</t>
+          <t>-25,06; 96,77</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-35,89; 4,8</t>
+          <t>-34,98; 3,47</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,77; 107,84</t>
+          <t>10,19; 107,45</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 3,04</t>
+          <t>-1,65; 3,12</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,07; 10,69</t>
+          <t>5,2; 10,89</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 1,94</t>
+          <t>-4,31; 2,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,75; 13,13</t>
+          <t>3,84; 12,56</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 1,74</t>
+          <t>-2,31; 1,66</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,0; 11,12</t>
+          <t>6,23; 11,22</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-21,76; 57,37</t>
+          <t>-22,29; 62,58</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>64,26; 203,0</t>
+          <t>66,27; 201,62</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-25,98; 13,44</t>
+          <t>-24,27; 15,11</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>24,21; 89,85</t>
+          <t>24,68; 87,44</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-17,49; 16,7</t>
+          <t>-18,93; 15,45</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>48,99; 105,77</t>
+          <t>50,49; 107,99</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 1,34</t>
+          <t>-1,21; 1,27</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,94; 7,34</t>
+          <t>2,77; 7,39</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,02; -1,62</t>
+          <t>-5,2; -1,64</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,04; 10,56</t>
+          <t>3,35; 10,33</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,7; -0,6</t>
+          <t>-2,65; -0,52</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>4,42; 8,55</t>
+          <t>4,63; 8,52</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-14,89; 21,61</t>
+          <t>-16,8; 21,11</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>44,36; 122,43</t>
+          <t>43,17; 120,6</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-29,02; -10,35</t>
+          <t>-29,28; -10,49</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>23,77; 67,51</t>
+          <t>20,95; 66,58</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-22,21; -5,48</t>
+          <t>-22,3; -5,09</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>37,47; 76,9</t>
+          <t>39,12; 76,38</t>
         </is>
       </c>
     </row>
